--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\AdvanceSelenium\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC4C55B-60EC-45C4-A96F-B6E27381A7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C025678-CF63-4350-B6BF-AFFD5FD0783B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -810,7 +810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBCB6E2-9806-424F-BA1A-6ACC288B911A}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -883,10 +883,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93062698-E307-443C-B3AB-B90D77478D6B}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -919,19 +919,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
     </row>
